--- a/VitalSigns/CurrentBuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
+++ b/VitalSigns/CurrentBuild/ValueSet-vkp-subject-identifiers.valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers</t>
+    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/CodeSystem/vkp-subject-identifiers</t>
+    <t>http://hl7.no/fhir/CodeSystem/vkp-subject-identifiers.codesystem</t>
   </si>
 </sst>
 </file>
